--- a/BROMappings/Mapping en definitie BRO GMN.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMN.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/Datamodels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{DFE48FA1-484F-4F3E-BCD5-80D38728AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0D6BC7-9623-4DCF-9080-C156589E4227}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{DFE48FA1-484F-4F3E-BCD5-80D38728AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106FAFA2-4694-45D6-B983-7DE141AB7EE0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22488" yWindow="2952" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="129">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -396,19 +396,25 @@
     <t>Afgeleid uit inlog bronhouderportaal</t>
   </si>
   <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>GMWBROID</t>
+  </si>
+  <si>
+    <t>(Nu nog) Index van C.DATA.BRO.COM.List.QualityRegime</t>
+  </si>
+  <si>
+    <t>GMNID</t>
+  </si>
+  <si>
+    <t>Lokaal (bron-)ID, voor relaties met andere objecten, objecten zonder BRO-ID , willekeurige brondataselectie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opname van ID bij 1 : n relatie vereenvoudigt tabeloperaties (bijv. innerjoin) </t>
+  </si>
+  <si>
     <t>[ID]</t>
-  </si>
-  <si>
-    <t>Nee</t>
-  </si>
-  <si>
-    <t>NetID</t>
-  </si>
-  <si>
-    <t>GMWBROID</t>
-  </si>
-  <si>
-    <t>(Nu nog) Index van C.DATA.BRO.COM.List.QualityRegime</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -496,6 +502,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -517,16 +534,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,35 +825,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T226"/>
+  <dimension ref="A1:T228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" style="7" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="7" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="87.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -898,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -933,155 +950,179 @@
       <c r="M2" t="s">
         <v>112</v>
       </c>
+      <c r="N2"/>
       <c r="O2" t="s">
         <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" t="s">
+        <v>112</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="R3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="S3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="13"/>
       <c r="O4" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
         <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="S5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1093,43 +1134,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
         <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1167,385 +1205,385 @@
       <c r="R7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="11" t="s">
-        <v>123</v>
+      <c r="S7" t="s">
+        <v>122</v>
       </c>
       <c r="T7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="S9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>71</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O11" t="s">
         <v>59</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P11" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q11" t="s">
         <v>79</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R11" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="S11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
+      <c r="B12"/>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>70</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O12" t="s">
         <v>59</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P12" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q12" t="s">
         <v>80</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R12" t="s">
         <v>76</v>
       </c>
-      <c r="S10" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="S12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="S13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8" t="s">
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R13" t="s">
-        <v>84</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S14" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="Q15" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="R15" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="S15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -1554,552 +1592,632 @@
         <v>7</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="Q17" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="S17" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" t="s">
-        <v>112</v>
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>66</v>
       </c>
       <c r="O19" t="s">
         <v>60</v>
       </c>
       <c r="P19" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s">
-        <v>114</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" s="13" t="s">
+      <c r="S22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S21" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="T21" s="13" t="s">
+      <c r="S23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="N32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:T21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BROMappings/Mapping en definitie BRO GMN.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{DFE48FA1-484F-4F3E-BCD5-80D38728AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106FAFA2-4694-45D6-B983-7DE141AB7EE0}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{DFE48FA1-484F-4F3E-BCD5-80D38728AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEBF6AD-700E-4C5A-A8BB-114E81C8AAC4}"/>
   <bookViews>
-    <workbookView xWindow="22488" yWindow="2952" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33945" yWindow="3495" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="130">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -402,9 +402,6 @@
     <t>GMWBROID</t>
   </si>
   <si>
-    <t>(Nu nog) Index van C.DATA.BRO.COM.List.QualityRegime</t>
-  </si>
-  <si>
     <t>GMNID</t>
   </si>
   <si>
@@ -415,6 +412,12 @@
   </si>
   <si>
     <t>[ID]</t>
+  </si>
+  <si>
+    <t>[IDCategorical]</t>
+  </si>
+  <si>
+    <t>Index van C.DATA.BRO.COM.List.QualityRegime</t>
   </si>
 </sst>
 </file>
@@ -828,32 +831,32 @@
   <dimension ref="A1:T228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="R8" sqref="R8:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="7" customWidth="1"/>
-    <col min="15" max="17" width="25.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="87.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="7" customWidth="1"/>
+    <col min="15" max="17" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="87.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -915,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -955,22 +958,22 @@
         <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S2" t="s">
         <v>122</v>
       </c>
       <c r="T2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -1010,22 +1013,22 @@
         <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S3" t="s">
         <v>122</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -1064,22 +1067,22 @@
         <v>60</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>122</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1251,16 +1254,16 @@
         <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="T8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>111</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>111</v>
       </c>
@@ -1957,265 +1960,265 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="N32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:T23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BROMappings/Mapping en definitie BRO GMN.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{DFE48FA1-484F-4F3E-BCD5-80D38728AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEBF6AD-700E-4C5A-A8BB-114E81C8AAC4}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{DFE48FA1-484F-4F3E-BCD5-80D38728AFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4355BCD3-93C1-46EC-8C91-07F46339AE07}"/>
   <bookViews>
-    <workbookView xWindow="33945" yWindow="3495" windowWidth="23040" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="131">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -279,9 +279,6 @@
     <t>EventName</t>
   </si>
   <si>
-    <t>EventDate</t>
-  </si>
-  <si>
     <t>[MatlabDate]</t>
   </si>
   <si>
@@ -418,6 +415,12 @@
   </si>
   <si>
     <t>Index van C.DATA.BRO.COM.List.QualityRegime</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>[DateTime]</t>
   </si>
 </sst>
 </file>
@@ -830,33 +833,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:T8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4980" ySplit="600" topLeftCell="O1" activePane="bottomLeft"/>
+      <selection activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="R5" sqref="R5:R20"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:G20"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" style="7" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="87.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.28515625" style="7" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="87.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -918,180 +925,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
         <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -1099,8 +1106,11 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1110,22 +1120,22 @@
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1142,6 +1152,9 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
       <c r="H6" t="s">
         <v>49</v>
       </c>
@@ -1155,7 +1168,7 @@
         <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P6" t="s">
         <v>73</v>
@@ -1167,10 +1180,10 @@
         <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1182,10 +1195,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
         <v>118</v>
       </c>
-      <c r="F7" t="s">
-        <v>119</v>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
@@ -1197,25 +1213,25 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1232,6 +1248,9 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
       <c r="H8" t="s">
         <v>51</v>
       </c>
@@ -1245,7 +1264,7 @@
         <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s">
         <v>75</v>
@@ -1254,16 +1273,16 @@
         <v>75</v>
       </c>
       <c r="R8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1279,6 +1298,9 @@
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1304,54 +1326,57 @@
         <v>78</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1368,6 +1393,9 @@
       <c r="F11" t="s">
         <v>38</v>
       </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
@@ -1393,10 +1421,10 @@
         <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1413,6 +1441,9 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" t="s">
         <v>51</v>
       </c>
@@ -1438,10 +1469,10 @@
         <v>76</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1457,6 +1488,9 @@
       <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1482,24 +1516,27 @@
         <v>76</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>89</v>
+      <c r="G14" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>52</v>
@@ -1514,19 +1551,19 @@
         <v>59</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1538,10 +1575,13 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
-        <v>94</v>
+      <c r="G15" t="s">
+        <v>130</v>
       </c>
       <c r="H15" t="s">
         <v>52</v>
@@ -1557,19 +1597,19 @@
         <v>59</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1585,6 +1625,9 @@
       <c r="F16" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1601,19 +1644,19 @@
         <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1630,6 +1673,9 @@
       <c r="F17" t="s">
         <v>3</v>
       </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
       <c r="H17" t="s">
         <v>53</v>
       </c>
@@ -1646,22 +1692,22 @@
         <v>61</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1677,6 +1723,9 @@
       <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1693,25 +1742,25 @@
         <v>61</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -1722,6 +1771,9 @@
       <c r="F19" t="s">
         <v>42</v>
       </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
       <c r="H19" t="s">
         <v>51</v>
       </c>
@@ -1747,15 +1799,15 @@
         <v>76</v>
       </c>
       <c r="S19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>45</v>
@@ -1766,6 +1818,9 @@
       <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
@@ -1782,443 +1837,443 @@
         <v>60</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="S20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O21" t="s">
         <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="P23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="Q23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="11" t="s">
+      <c r="R23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Q23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="N32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:T23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
